--- a/main/database/pallet-db.xlsx
+++ b/main/database/pallet-db.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,9 +399,6 @@
       <c r="F1" t="str">
         <v>maxWeight</v>
       </c>
-      <c r="G1" t="str">
-        <v>price</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -422,9 +419,6 @@
       <c r="F2" t="str">
         <v>300</v>
       </c>
-      <c r="G2" t="str">
-        <v>32</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -445,9 +439,6 @@
       <c r="F3" t="str">
         <v>600</v>
       </c>
-      <c r="G3" t="str">
-        <v>33</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -468,9 +459,6 @@
       <c r="F4" t="str">
         <v>1200</v>
       </c>
-      <c r="G4" t="str">
-        <v>35.50</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -491,9 +479,6 @@
       <c r="F5" t="str">
         <v>300</v>
       </c>
-      <c r="G5" t="str">
-        <v>31</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -514,9 +499,6 @@
       <c r="F6" t="str">
         <v>600</v>
       </c>
-      <c r="G6" t="str">
-        <v>31</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -537,13 +519,10 @@
       <c r="F7" t="str">
         <v>1200</v>
       </c>
-      <c r="G7" t="str">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/main/database/pallet-db.xlsx
+++ b/main/database/pallet-db.xlsx
@@ -405,13 +405,13 @@
         <v>standard-quarter</v>
       </c>
       <c r="B2" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="C2" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="D2" t="str">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="E2" t="str">
         <v>1.152</v>
@@ -425,13 +425,13 @@
         <v>standard-half</v>
       </c>
       <c r="B3" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="C3" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="D3" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="E3" t="str">
         <v>1.728</v>
@@ -445,13 +445,13 @@
         <v>standard</v>
       </c>
       <c r="B4" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="C4" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="D4" t="str">
-        <v>220</v>
+        <v>2200</v>
       </c>
       <c r="E4" t="str">
         <v>3.168</v>
@@ -465,10 +465,10 @@
         <v>euro-quarter</v>
       </c>
       <c r="B5" t="str">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="C5" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="D5" t="str">
         <v>800</v>
@@ -485,13 +485,13 @@
         <v>euro-half</v>
       </c>
       <c r="B6" t="str">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="C6" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="D6" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="E6" t="str">
         <v>1.152</v>
@@ -505,13 +505,13 @@
         <v>euro</v>
       </c>
       <c r="B7" t="str">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="C7" t="str">
-        <v>120</v>
+        <v>1200</v>
       </c>
       <c r="D7" t="str">
-        <v>220</v>
+        <v>2200</v>
       </c>
       <c r="E7" t="str">
         <v>2.112</v>
